--- a/Industry/201612-201908/HKD/MILLION/Analysis_100_10.1 - Seats & Parts of Seats_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_100_10.1 - Seats & Parts of Seats_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1536" yWindow="1536"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -19978,6 +19979,516 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="9" min="2" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="n">
+        <v>658.347</v>
+      </c>
+      <c r="C2" t="n">
+        <v>716.943</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>519.207</v>
+      </c>
+      <c r="F2" t="n">
+        <v>802.038</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.869</v>
+      </c>
+      <c r="H2" t="n">
+        <v>515.923</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.633</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" t="n">
+        <v>280.68</v>
+      </c>
+      <c r="C3" t="n">
+        <v>303.654</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.185</v>
+      </c>
+      <c r="E3" t="n">
+        <v>247.009</v>
+      </c>
+      <c r="F3" t="n">
+        <v>380.052</v>
+      </c>
+      <c r="G3" t="n">
+        <v>25.159</v>
+      </c>
+      <c r="H3" t="n">
+        <v>247.083</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>42.634</v>
+      </c>
+      <c r="K3" t="n">
+        <v>42.354</v>
+      </c>
+      <c r="L3" t="n">
+        <v>47.574</v>
+      </c>
+      <c r="M3" t="n">
+        <v>47.386</v>
+      </c>
+      <c r="N3" t="n">
+        <v>47.891</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" t="n">
+        <v>142.959</v>
+      </c>
+      <c r="C4" t="n">
+        <v>136.762</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-4.335</v>
+      </c>
+      <c r="E4" t="n">
+        <v>103.077</v>
+      </c>
+      <c r="F4" t="n">
+        <v>159.209</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16.414</v>
+      </c>
+      <c r="H4" t="n">
+        <v>96.639</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-6.246</v>
+      </c>
+      <c r="J4" t="n">
+        <v>21.715</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.076</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19.853</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19.851</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18.731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B5" t="n">
+        <v>94.06999999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>118.003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25.442</v>
+      </c>
+      <c r="E5" t="n">
+        <v>72.652</v>
+      </c>
+      <c r="F5" t="n">
+        <v>111.701</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-5.34</v>
+      </c>
+      <c r="H5" t="n">
+        <v>62.288</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-14.264</v>
+      </c>
+      <c r="J5" t="n">
+        <v>14.289</v>
+      </c>
+      <c r="K5" t="n">
+        <v>16.459</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13.993</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.927</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="n">
+        <v>78.813</v>
+      </c>
+      <c r="C6" t="n">
+        <v>87.636</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.194</v>
+      </c>
+      <c r="E6" t="n">
+        <v>52.019</v>
+      </c>
+      <c r="F6" t="n">
+        <v>79.123</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-9.714</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50.764</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-2.412</v>
+      </c>
+      <c r="J6" t="n">
+        <v>11.971</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.224</v>
+      </c>
+      <c r="L6" t="n">
+        <v>10.019</v>
+      </c>
+      <c r="M6" t="n">
+        <v>9.865</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9.839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5.673</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.159</v>
+      </c>
+      <c r="D7" t="n">
+        <v>79.09099999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>6.508</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.919</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2.368</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26.866</v>
+      </c>
+      <c r="I7" t="n">
+        <v>312.789</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.862</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.417</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.254</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.237</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B8" t="n">
+        <v>43.079</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44.689</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="E8" t="n">
+        <v>29.357</v>
+      </c>
+      <c r="F8" t="n">
+        <v>46.172</v>
+      </c>
+      <c r="G8" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23.281</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-20.699</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.544</v>
+      </c>
+      <c r="K8" t="n">
+        <v>6.233</v>
+      </c>
+      <c r="L8" t="n">
+        <v>5.654</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5.757</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9.941000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.556</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46.434</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.833</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.645</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.211</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.509</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.613</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-60.234</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.132</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-25.086</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.223</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-40.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-36.962</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46.242</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.047</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
     <col bestFit="1" customWidth="1" max="3" min="2" width="9"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="6" min="5" width="9"/>
